--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="113">
   <si>
     <t>do not print this form</t>
   </si>
@@ -76,15 +76,6 @@
     </r>
   </si>
   <si>
-    <t>Student Name</t>
-  </si>
-  <si>
-    <t>EC Identification</t>
-  </si>
-  <si>
-    <t>Ionuț Andreea</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -96,16 +87,31 @@
     </r>
   </si>
   <si>
+    <t>EC Identification</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>BVA Condition</t>
+  </si>
+  <si>
     <t>EC-based TCs</t>
   </si>
   <si>
-    <t>BVA Condition</t>
+    <t>Ionuț Andreea</t>
+  </si>
+  <si>
+    <t>BVA Condition-based TCs</t>
+  </si>
+  <si>
+    <t>No. EC</t>
   </si>
   <si>
     <t>[Unit BBT]</t>
   </si>
   <si>
-    <t>No. EC</t>
+    <t>Crt. No.</t>
   </si>
   <si>
     <t>Condition</t>
@@ -120,36 +126,42 @@
     <t>No. TCxx_EC</t>
   </si>
   <si>
-    <t>BVA Condition-based TCs</t>
+    <t>Delivery Date</t>
   </si>
   <si>
     <t>EC</t>
   </si>
   <si>
-    <t>Crt. No.</t>
-  </si>
-  <si>
-    <t>Delivery Date</t>
+    <t>No TCxx_BVA</t>
   </si>
   <si>
     <t>input data</t>
   </si>
   <si>
+    <t>BVA condition</t>
+  </si>
+  <si>
+    <t>Correlated TC</t>
+  </si>
+  <si>
     <t>Group</t>
   </si>
   <si>
+    <t>Executable</t>
+  </si>
+  <si>
     <t>output data</t>
   </si>
   <si>
+    <t>nume e String</t>
+  </si>
+  <si>
     <t>Proiectaţi şi implementaţi o aplicaţie Java pentru rezolvarea problemei propuse. Se va evidenţia o arhitectură stratificată.</t>
   </si>
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
   <si>
-    <t>nume e String</t>
-  </si>
-  <si>
     <t>1. Evidenţa contactelor din agenda personala</t>
   </si>
   <si>
@@ -159,13 +171,25 @@
     <t>F01. adăugarea unui contact nou (nume, adresa, telefon);</t>
   </si>
   <si>
+    <t>nume</t>
+  </si>
+  <si>
     <t>Observații</t>
   </si>
   <si>
+    <t>nume is String, length &gt; 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. La proiectarea TCs se considera o metodă care poate avea următoarea semnatură: </t>
   </si>
   <si>
-    <t>Contact(String nume, String adresa, String telefon): void</t>
+    <t>addContact(String nume, String adresa, String telefon): void</t>
+  </si>
+  <si>
+    <t>adresa</t>
+  </si>
+  <si>
+    <t>telefon</t>
   </si>
   <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
@@ -174,22 +198,28 @@
     <t>3. Se aleg doi parametri ai metodei testate şi se definesc condiţii asupra acestora. Condiţiile (constrângerile) rezultă din specificaţii.</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide.</t>
   </si>
   <si>
-    <t>nume</t>
-  </si>
-  <si>
-    <t>No TCxx_BVA</t>
-  </si>
-  <si>
-    <t>BVA condition</t>
-  </si>
-  <si>
-    <t>Correlated TC</t>
-  </si>
-  <si>
-    <t>Executable</t>
+    <t>01. nume = "P", length = 1</t>
+  </si>
+  <si>
+    <t>nume not String</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>"PPP"</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>+40789</t>
   </si>
   <si>
     <r>
@@ -273,45 +303,21 @@
     </r>
   </si>
   <si>
-    <t>adresa</t>
-  </si>
-  <si>
-    <t>telefon</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>nume not String</t>
-  </si>
-  <si>
-    <t>1, 3</t>
-  </si>
-  <si>
-    <t>"PPP"</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>+40789</t>
-  </si>
-  <si>
-    <t>nume is String, length &gt; 2</t>
-  </si>
-  <si>
-    <t>01. nume = "P", length = 1</t>
+    <t>expected result</t>
+  </si>
+  <si>
+    <t>02. nume = "PP", length = 2</t>
   </si>
   <si>
     <t>record added</t>
   </si>
   <si>
+    <t>TC3_EC</t>
+  </si>
+  <si>
     <t>telefon e String incepe cu "+" si are length &gt;= 2 sau incepe cu "0"</t>
   </si>
   <si>
-    <t>expected result</t>
-  </si>
-  <si>
     <t>telefon e String incepe cu "+" si are length &gt; 2 sau incepe cu "0"</t>
   </si>
   <si>
@@ -321,13 +327,10 @@
     <t>…</t>
   </si>
   <si>
-    <t>02. nume = "PP", length = 2</t>
-  </si>
-  <si>
-    <t>record not added</t>
-  </si>
-  <si>
-    <t>TC3_EC</t>
+    <t>record not added, InvalidFormatException  to be thrown</t>
+  </si>
+  <si>
+    <t>03. nume = "PPP", length = 3</t>
   </si>
   <si>
     <t>telefon not String sau telefon nu incepe cu "+" si nu are length &gt;= 2 sau nu incepe cu "0"</t>
@@ -336,79 +339,91 @@
     <t>2, 3</t>
   </si>
   <si>
-    <t>03. nume = "PPP", length = 3</t>
+    <t>Error message-? Compiler checked, Nu se poate rula testul pentru ca nu se poate introduce int unde valoare expected este String</t>
+  </si>
+  <si>
+    <t>"P"</t>
+  </si>
+  <si>
+    <t>"A"</t>
+  </si>
+  <si>
+    <t>2, 5</t>
+  </si>
+  <si>
+    <t>"PP"</t>
+  </si>
+  <si>
+    <t>"AA"</t>
+  </si>
+  <si>
+    <t>0730</t>
+  </si>
+  <si>
+    <t>"AAA"</t>
+  </si>
+  <si>
+    <t>adresa is String, length &gt; 2</t>
+  </si>
+  <si>
+    <t>04. adresa = "A", length = 1</t>
+  </si>
+  <si>
+    <t>BBT TCs</t>
+  </si>
+  <si>
+    <t>05. adresa = "AA", length = 2</t>
+  </si>
+  <si>
+    <t>06. adresa = "AAA", length = 3</t>
+  </si>
+  <si>
+    <t>Final        TC No.</t>
+  </si>
+  <si>
+    <t>Req. ID</t>
+  </si>
+  <si>
+    <t>ECP TCs</t>
+  </si>
+  <si>
+    <t>BVA TCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>TC1_ECP</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>record was added</t>
+  </si>
+  <si>
+    <t>TC2_ECP</t>
+  </si>
+  <si>
+    <t>record not added, InvalidFormatException to be thrown</t>
+  </si>
+  <si>
+    <t>InvalidFormatException was thrown</t>
+  </si>
+  <si>
+    <t>TC3_ECP</t>
   </si>
   <si>
     <t>Error message-? Compiler checked</t>
   </si>
   <si>
-    <t>0730</t>
-  </si>
-  <si>
-    <t>"P"</t>
-  </si>
-  <si>
-    <t>"A"</t>
-  </si>
-  <si>
-    <t>2, 5</t>
-  </si>
-  <si>
-    <t>"PP"</t>
-  </si>
-  <si>
-    <t>"AA"</t>
-  </si>
-  <si>
-    <t>"AAA"</t>
-  </si>
-  <si>
-    <t>adresa is String, length &gt; 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>BBT TCs</t>
-  </si>
-  <si>
-    <t>04. adresa = "A", length = 1</t>
-  </si>
-  <si>
-    <t>05. adresa = "AA", length = 2</t>
-  </si>
-  <si>
-    <t>06. adresa = "AAA", length = 3</t>
-  </si>
-  <si>
-    <t>Final        TC No.</t>
-  </si>
-  <si>
-    <t>Req. ID</t>
-  </si>
-  <si>
-    <t>ECP TCs</t>
-  </si>
-  <si>
-    <t>BVA TCs</t>
-  </si>
-  <si>
-    <t>actual result</t>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>TC1_ECP</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>TC2_ECP</t>
-  </si>
-  <si>
-    <t>TC3_ECP</t>
+    <t>Compile error</t>
   </si>
   <si>
     <t>TC4_ECP</t>
@@ -596,21 +611,21 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF0066CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF31859B"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FF31859B"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color rgb="FF31859B"/>
       <name val="Calibri"/>
@@ -1069,54 +1084,60 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1130,152 +1151,146 @@
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf quotePrefix="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf quotePrefix="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1283,10 +1298,10 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1297,6 +1312,9 @@
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1316,16 +1334,19 @@
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1333,7 +1354,7 @@
     <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1372,7 +1393,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1411,7 +1432,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="35" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1421,6 +1442,9 @@
     </xf>
     <xf borderId="37" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="34" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1467,7 +1491,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4"/>
@@ -1478,17 +1502,17 @@
       <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="L3" s="9" t="s">
-        <v>4</v>
+      <c r="L3" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="11" t="s">
-        <v>6</v>
+      <c r="N3" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1496,29 +1520,29 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="11">
+      <c r="N4" s="21"/>
+      <c r="O4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="14">
         <v>234.0</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -1534,8 +1558,8 @@
       <c r="E8" s="17"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="23" t="s">
-        <v>26</v>
+      <c r="B9" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1543,15 +1567,15 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="23" t="s">
-        <v>28</v>
+      <c r="B11" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -1563,28 +1587,28 @@
       <c r="E12" s="17"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="25" t="s">
-        <v>29</v>
+      <c r="C13" s="30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="C14" s="17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="D15" s="27" t="s">
-        <v>31</v>
+      <c r="D15" s="32" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="C16" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="C17" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1601,7 +1625,7 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="C18" s="17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1617,14 +1641,14 @@
       <c r="O18" s="17"/>
     </row>
     <row r="19" ht="28.5" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="C19" s="33" t="s">
-        <v>40</v>
+      <c r="A19" s="35"/>
+      <c r="C19" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="39"/>
+      <c r="C21" s="40"/>
     </row>
     <row r="22" ht="14.25" customHeight="1"/>
     <row r="23" ht="14.25" customHeight="1"/>
@@ -2655,8 +2679,8 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4"/>
@@ -2664,10 +2688,10 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
@@ -2677,10 +2701,10 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4"/>
@@ -2701,26 +2725,26 @@
       <c r="Q5" s="5"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="E6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>20</v>
+      <c r="H6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -2728,3316 +2752,3319 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="20" t="s">
-        <v>22</v>
+      <c r="P6" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="22">
+      <c r="B7" s="16">
         <v>1.0</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>25</v>
+      <c r="C7" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="E7" s="16"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K7" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="22">
+      <c r="B8" s="16">
         <v>2.0</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="22"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="14">
+        <v>45</v>
+      </c>
+      <c r="G8" s="15">
         <v>1.0</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="B9" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="G9" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="J9" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="47">
+        <v>4.0</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="B10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="G9" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="22">
-        <v>4.0</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="52"/>
+      <c r="K10" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="57"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="54" t="s">
+      <c r="P10" s="59" t="s">
         <v>63</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="B11" s="22">
+      <c r="B11" s="16">
         <v>5.0</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="G11" s="31">
         <v>4.0</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="47">
         <v>2.4</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="47">
         <v>1.0</v>
       </c>
       <c r="J11" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="47">
+        <v>5.0</v>
+      </c>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="B12" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="G12" s="63">
+        <v>5.0</v>
+      </c>
+      <c r="H12" s="65">
+        <v>1.3</v>
+      </c>
+      <c r="I12" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="22">
-        <v>6.0</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="G12" s="57">
-        <v>5.0</v>
-      </c>
-      <c r="H12" s="59">
-        <v>1.3</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="59" t="s">
-        <v>47</v>
+      <c r="J12" s="65" t="s">
+        <v>48</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
+        <v>69</v>
+      </c>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="67" t="s">
+        <v>53</v>
+      </c>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="22">
+      <c r="B13" s="16">
         <v>7.0</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="62"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="58"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="62"/>
+      <c r="P13" s="58"/>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="22">
+      <c r="B14" s="16">
         <v>8.0</v>
       </c>
       <c r="C14" s="28"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="66"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="68"/>
+      <c r="P14" s="71"/>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="22">
+      <c r="B15" s="16">
         <v>9.0</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="40"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="43"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="68"/>
+      <c r="P15" s="71"/>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="22">
+      <c r="B16" s="16">
         <v>10.0</v>
       </c>
       <c r="C16" s="28"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="40"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="68"/>
+      <c r="P16" s="71"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="22">
+      <c r="B17" s="16">
         <v>11.0</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="40"/>
+      <c r="C17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="43"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="68"/>
+      <c r="P17" s="71"/>
       <c r="Q17" s="5"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="22">
+      <c r="B18" s="16">
         <v>12.0</v>
       </c>
       <c r="C18" s="28"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="40"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="43"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="68"/>
+      <c r="P18" s="71"/>
       <c r="Q18" s="5"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="22">
+      <c r="B19" s="16">
         <v>13.0</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="40"/>
+      <c r="C19" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="43"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="68"/>
+      <c r="P19" s="71"/>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="22">
+      <c r="B20" s="16">
         <v>14.0</v>
       </c>
       <c r="C20" s="28"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="3"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="3"/>
+      <c r="C22" s="2"/>
       <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="70"/>
+        <v>80</v>
+      </c>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="C23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="C24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="C26" s="3"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="C27" s="3"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="3"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="C29" s="3"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="C30" s="3"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="C31" s="3"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="C32" s="3"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="C33" s="3"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="C34" s="3"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="C35" s="3"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="C36" s="3"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="C37" s="3"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="C38" s="3"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="C39" s="3"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="C40" s="3"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="C41" s="3"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="C42" s="3"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="C43" s="3"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="C44" s="3"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="C45" s="3"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="C46" s="3"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="C47" s="3"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="C48" s="3"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="C49" s="3"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="C50" s="3"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="C51" s="3"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="C52" s="3"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="C53" s="3"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="C54" s="3"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="C55" s="3"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="C56" s="3"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="C57" s="3"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="C58" s="3"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="C59" s="3"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="C60" s="3"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="C61" s="3"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="C62" s="3"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="C63" s="3"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="C64" s="3"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="C65" s="3"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="C66" s="3"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="C67" s="3"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="C68" s="3"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="C69" s="3"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="C70" s="3"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="C71" s="3"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="C72" s="3"/>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="C73" s="3"/>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="C74" s="3"/>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="C75" s="3"/>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="C76" s="3"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="C77" s="3"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="C78" s="3"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="C79" s="3"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="C80" s="3"/>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="C81" s="3"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="C82" s="3"/>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="C83" s="3"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="C84" s="3"/>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="C85" s="3"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="C86" s="3"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="C87" s="3"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="C88" s="3"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="C89" s="3"/>
+      <c r="C89" s="2"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="C90" s="3"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="C91" s="3"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="C92" s="3"/>
+      <c r="C92" s="2"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="C93" s="3"/>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="C94" s="3"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="C95" s="3"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="C96" s="3"/>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="C97" s="3"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="C98" s="3"/>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="C99" s="3"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="C100" s="3"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="C101" s="3"/>
+      <c r="C101" s="2"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="C102" s="3"/>
+      <c r="C102" s="2"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="C103" s="3"/>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="C104" s="3"/>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="C105" s="3"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="C106" s="3"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="C107" s="3"/>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="C108" s="3"/>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="C109" s="3"/>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="C110" s="3"/>
+      <c r="C110" s="2"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="C111" s="3"/>
+      <c r="C111" s="2"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="C112" s="3"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="C113" s="3"/>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="C114" s="3"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="C115" s="3"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="C116" s="3"/>
+      <c r="C116" s="2"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="C117" s="3"/>
+      <c r="C117" s="2"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="C118" s="3"/>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="C119" s="3"/>
+      <c r="C119" s="2"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="C120" s="3"/>
+      <c r="C120" s="2"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="C121" s="3"/>
+      <c r="C121" s="2"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="C122" s="3"/>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="C123" s="3"/>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="C124" s="3"/>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="C125" s="3"/>
+      <c r="C125" s="2"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="C126" s="3"/>
+      <c r="C126" s="2"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="C127" s="3"/>
+      <c r="C127" s="2"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="C128" s="3"/>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="C129" s="3"/>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="C130" s="3"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="C131" s="3"/>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="C132" s="3"/>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="C133" s="3"/>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="C134" s="3"/>
+      <c r="C134" s="2"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="C135" s="3"/>
+      <c r="C135" s="2"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="C136" s="3"/>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="C137" s="3"/>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="C138" s="3"/>
+      <c r="C138" s="2"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="C139" s="3"/>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="C140" s="3"/>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="C141" s="3"/>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="C142" s="3"/>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="C143" s="3"/>
+      <c r="C143" s="2"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="C144" s="3"/>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="C145" s="3"/>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="C146" s="3"/>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="C147" s="3"/>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="C148" s="3"/>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="C149" s="3"/>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="C150" s="3"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="C151" s="3"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="C152" s="3"/>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="C153" s="3"/>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="C154" s="3"/>
+      <c r="C154" s="2"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="C155" s="3"/>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="C156" s="3"/>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="C157" s="3"/>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="C158" s="3"/>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="C159" s="3"/>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="C160" s="3"/>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="C161" s="3"/>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="C162" s="3"/>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="C163" s="3"/>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="C164" s="3"/>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="C165" s="3"/>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="C166" s="3"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="C167" s="3"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="C168" s="3"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="C169" s="3"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="C170" s="3"/>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="C171" s="3"/>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="C172" s="3"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="C173" s="3"/>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="C174" s="3"/>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="C175" s="3"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="C176" s="3"/>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="C177" s="3"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="C178" s="3"/>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="C179" s="3"/>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="C180" s="3"/>
+      <c r="C180" s="2"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="C181" s="3"/>
+      <c r="C181" s="2"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="C182" s="3"/>
+      <c r="C182" s="2"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="C183" s="3"/>
+      <c r="C183" s="2"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="C184" s="3"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="C185" s="3"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="C186" s="3"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="C187" s="3"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="C188" s="3"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="C189" s="3"/>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="C190" s="3"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="C191" s="3"/>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="C192" s="3"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="C193" s="3"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="C194" s="3"/>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="C195" s="3"/>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="C196" s="3"/>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="C197" s="3"/>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="C198" s="3"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="C199" s="3"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="C200" s="3"/>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="C201" s="3"/>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="C202" s="3"/>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="C203" s="3"/>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="C204" s="3"/>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="C205" s="3"/>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="C206" s="3"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="C207" s="3"/>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="C208" s="3"/>
+      <c r="C208" s="2"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="C209" s="3"/>
+      <c r="C209" s="2"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="C210" s="3"/>
+      <c r="C210" s="2"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="C211" s="3"/>
+      <c r="C211" s="2"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="C212" s="3"/>
+      <c r="C212" s="2"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="C213" s="3"/>
+      <c r="C213" s="2"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="C214" s="3"/>
+      <c r="C214" s="2"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="C215" s="3"/>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="C216" s="3"/>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="C217" s="3"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="C218" s="3"/>
+      <c r="C218" s="2"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="C219" s="3"/>
+      <c r="C219" s="2"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="C220" s="3"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="C221" s="3"/>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
-      <c r="C222" s="3"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
-      <c r="C223" s="3"/>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
-      <c r="C224" s="3"/>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
-      <c r="C225" s="3"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
-      <c r="C226" s="3"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
-      <c r="C227" s="3"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
-      <c r="C228" s="3"/>
+      <c r="C228" s="2"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
-      <c r="C229" s="3"/>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
-      <c r="C230" s="3"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
-      <c r="C231" s="3"/>
+      <c r="C231" s="2"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
-      <c r="C232" s="3"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
-      <c r="C233" s="3"/>
+      <c r="C233" s="2"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
-      <c r="C234" s="3"/>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
-      <c r="C235" s="3"/>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
-      <c r="C236" s="3"/>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
-      <c r="C237" s="3"/>
+      <c r="C237" s="2"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
-      <c r="C238" s="3"/>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
-      <c r="C239" s="3"/>
+      <c r="C239" s="2"/>
     </row>
     <row r="240" ht="14.25" customHeight="1">
-      <c r="C240" s="3"/>
+      <c r="C240" s="2"/>
     </row>
     <row r="241" ht="14.25" customHeight="1">
-      <c r="C241" s="3"/>
+      <c r="C241" s="2"/>
     </row>
     <row r="242" ht="14.25" customHeight="1">
-      <c r="C242" s="3"/>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" ht="14.25" customHeight="1">
-      <c r="C243" s="3"/>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
-      <c r="C244" s="3"/>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
-      <c r="C245" s="3"/>
+      <c r="C245" s="2"/>
     </row>
     <row r="246" ht="14.25" customHeight="1">
-      <c r="C246" s="3"/>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" ht="14.25" customHeight="1">
-      <c r="C247" s="3"/>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" ht="14.25" customHeight="1">
-      <c r="C248" s="3"/>
+      <c r="C248" s="2"/>
     </row>
     <row r="249" ht="14.25" customHeight="1">
-      <c r="C249" s="3"/>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" ht="14.25" customHeight="1">
-      <c r="C250" s="3"/>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" ht="14.25" customHeight="1">
-      <c r="C251" s="3"/>
+      <c r="C251" s="2"/>
     </row>
     <row r="252" ht="14.25" customHeight="1">
-      <c r="C252" s="3"/>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
-      <c r="C253" s="3"/>
+      <c r="C253" s="2"/>
     </row>
     <row r="254" ht="14.25" customHeight="1">
-      <c r="C254" s="3"/>
+      <c r="C254" s="2"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
-      <c r="C255" s="3"/>
+      <c r="C255" s="2"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
-      <c r="C256" s="3"/>
+      <c r="C256" s="2"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
-      <c r="C257" s="3"/>
+      <c r="C257" s="2"/>
     </row>
     <row r="258" ht="14.25" customHeight="1">
-      <c r="C258" s="3"/>
+      <c r="C258" s="2"/>
     </row>
     <row r="259" ht="14.25" customHeight="1">
-      <c r="C259" s="3"/>
+      <c r="C259" s="2"/>
     </row>
     <row r="260" ht="14.25" customHeight="1">
-      <c r="C260" s="3"/>
+      <c r="C260" s="2"/>
     </row>
     <row r="261" ht="14.25" customHeight="1">
-      <c r="C261" s="3"/>
+      <c r="C261" s="2"/>
     </row>
     <row r="262" ht="14.25" customHeight="1">
-      <c r="C262" s="3"/>
+      <c r="C262" s="2"/>
     </row>
     <row r="263" ht="14.25" customHeight="1">
-      <c r="C263" s="3"/>
+      <c r="C263" s="2"/>
     </row>
     <row r="264" ht="14.25" customHeight="1">
-      <c r="C264" s="3"/>
+      <c r="C264" s="2"/>
     </row>
     <row r="265" ht="14.25" customHeight="1">
-      <c r="C265" s="3"/>
+      <c r="C265" s="2"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
-      <c r="C266" s="3"/>
+      <c r="C266" s="2"/>
     </row>
     <row r="267" ht="14.25" customHeight="1">
-      <c r="C267" s="3"/>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" ht="14.25" customHeight="1">
-      <c r="C268" s="3"/>
+      <c r="C268" s="2"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
-      <c r="C269" s="3"/>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
-      <c r="C270" s="3"/>
+      <c r="C270" s="2"/>
     </row>
     <row r="271" ht="14.25" customHeight="1">
-      <c r="C271" s="3"/>
+      <c r="C271" s="2"/>
     </row>
     <row r="272" ht="14.25" customHeight="1">
-      <c r="C272" s="3"/>
+      <c r="C272" s="2"/>
     </row>
     <row r="273" ht="14.25" customHeight="1">
-      <c r="C273" s="3"/>
+      <c r="C273" s="2"/>
     </row>
     <row r="274" ht="14.25" customHeight="1">
-      <c r="C274" s="3"/>
+      <c r="C274" s="2"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
-      <c r="C275" s="3"/>
+      <c r="C275" s="2"/>
     </row>
     <row r="276" ht="14.25" customHeight="1">
-      <c r="C276" s="3"/>
+      <c r="C276" s="2"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
-      <c r="C277" s="3"/>
+      <c r="C277" s="2"/>
     </row>
     <row r="278" ht="14.25" customHeight="1">
-      <c r="C278" s="3"/>
+      <c r="C278" s="2"/>
     </row>
     <row r="279" ht="14.25" customHeight="1">
-      <c r="C279" s="3"/>
+      <c r="C279" s="2"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
-      <c r="C280" s="3"/>
+      <c r="C280" s="2"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
-      <c r="C281" s="3"/>
+      <c r="C281" s="2"/>
     </row>
     <row r="282" ht="14.25" customHeight="1">
-      <c r="C282" s="3"/>
+      <c r="C282" s="2"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
-      <c r="C283" s="3"/>
+      <c r="C283" s="2"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
-      <c r="C284" s="3"/>
+      <c r="C284" s="2"/>
     </row>
     <row r="285" ht="14.25" customHeight="1">
-      <c r="C285" s="3"/>
+      <c r="C285" s="2"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
-      <c r="C286" s="3"/>
+      <c r="C286" s="2"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
-      <c r="C287" s="3"/>
+      <c r="C287" s="2"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
-      <c r="C288" s="3"/>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
-      <c r="C289" s="3"/>
+      <c r="C289" s="2"/>
     </row>
     <row r="290" ht="14.25" customHeight="1">
-      <c r="C290" s="3"/>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
-      <c r="C291" s="3"/>
+      <c r="C291" s="2"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
-      <c r="C292" s="3"/>
+      <c r="C292" s="2"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
-      <c r="C293" s="3"/>
+      <c r="C293" s="2"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
-      <c r="C294" s="3"/>
+      <c r="C294" s="2"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
-      <c r="C295" s="3"/>
+      <c r="C295" s="2"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
-      <c r="C296" s="3"/>
+      <c r="C296" s="2"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
-      <c r="C297" s="3"/>
+      <c r="C297" s="2"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
-      <c r="C298" s="3"/>
+      <c r="C298" s="2"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
-      <c r="C299" s="3"/>
+      <c r="C299" s="2"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
-      <c r="C300" s="3"/>
+      <c r="C300" s="2"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
-      <c r="C301" s="3"/>
+      <c r="C301" s="2"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
-      <c r="C302" s="3"/>
+      <c r="C302" s="2"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
-      <c r="C303" s="3"/>
+      <c r="C303" s="2"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
-      <c r="C304" s="3"/>
+      <c r="C304" s="2"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
-      <c r="C305" s="3"/>
+      <c r="C305" s="2"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="C306" s="3"/>
+      <c r="C306" s="2"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
-      <c r="C307" s="3"/>
+      <c r="C307" s="2"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
-      <c r="C308" s="3"/>
+      <c r="C308" s="2"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
-      <c r="C309" s="3"/>
+      <c r="C309" s="2"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
-      <c r="C310" s="3"/>
+      <c r="C310" s="2"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
-      <c r="C311" s="3"/>
+      <c r="C311" s="2"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
-      <c r="C312" s="3"/>
+      <c r="C312" s="2"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
-      <c r="C313" s="3"/>
+      <c r="C313" s="2"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
-      <c r="C314" s="3"/>
+      <c r="C314" s="2"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
-      <c r="C315" s="3"/>
+      <c r="C315" s="2"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
-      <c r="C316" s="3"/>
+      <c r="C316" s="2"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
-      <c r="C317" s="3"/>
+      <c r="C317" s="2"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
-      <c r="C318" s="3"/>
+      <c r="C318" s="2"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
-      <c r="C319" s="3"/>
+      <c r="C319" s="2"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
-      <c r="C320" s="3"/>
+      <c r="C320" s="2"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
-      <c r="C321" s="3"/>
+      <c r="C321" s="2"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
-      <c r="C322" s="3"/>
+      <c r="C322" s="2"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
-      <c r="C323" s="3"/>
+      <c r="C323" s="2"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
-      <c r="C324" s="3"/>
+      <c r="C324" s="2"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
-      <c r="C325" s="3"/>
+      <c r="C325" s="2"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
-      <c r="C326" s="3"/>
+      <c r="C326" s="2"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
-      <c r="C327" s="3"/>
+      <c r="C327" s="2"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
-      <c r="C328" s="3"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
-      <c r="C329" s="3"/>
+      <c r="C329" s="2"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
-      <c r="C330" s="3"/>
+      <c r="C330" s="2"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
-      <c r="C331" s="3"/>
+      <c r="C331" s="2"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
-      <c r="C332" s="3"/>
+      <c r="C332" s="2"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
-      <c r="C333" s="3"/>
+      <c r="C333" s="2"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
-      <c r="C334" s="3"/>
+      <c r="C334" s="2"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
-      <c r="C335" s="3"/>
+      <c r="C335" s="2"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
-      <c r="C336" s="3"/>
+      <c r="C336" s="2"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
-      <c r="C337" s="3"/>
+      <c r="C337" s="2"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
-      <c r="C338" s="3"/>
+      <c r="C338" s="2"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
-      <c r="C339" s="3"/>
+      <c r="C339" s="2"/>
     </row>
     <row r="340" ht="14.25" customHeight="1">
-      <c r="C340" s="3"/>
+      <c r="C340" s="2"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
-      <c r="C341" s="3"/>
+      <c r="C341" s="2"/>
     </row>
     <row r="342" ht="14.25" customHeight="1">
-      <c r="C342" s="3"/>
+      <c r="C342" s="2"/>
     </row>
     <row r="343" ht="14.25" customHeight="1">
-      <c r="C343" s="3"/>
+      <c r="C343" s="2"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
-      <c r="C344" s="3"/>
+      <c r="C344" s="2"/>
     </row>
     <row r="345" ht="14.25" customHeight="1">
-      <c r="C345" s="3"/>
+      <c r="C345" s="2"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
-      <c r="C346" s="3"/>
+      <c r="C346" s="2"/>
     </row>
     <row r="347" ht="14.25" customHeight="1">
-      <c r="C347" s="3"/>
+      <c r="C347" s="2"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
-      <c r="C348" s="3"/>
+      <c r="C348" s="2"/>
     </row>
     <row r="349" ht="14.25" customHeight="1">
-      <c r="C349" s="3"/>
+      <c r="C349" s="2"/>
     </row>
     <row r="350" ht="14.25" customHeight="1">
-      <c r="C350" s="3"/>
+      <c r="C350" s="2"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
-      <c r="C351" s="3"/>
+      <c r="C351" s="2"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
-      <c r="C352" s="3"/>
+      <c r="C352" s="2"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
-      <c r="C353" s="3"/>
+      <c r="C353" s="2"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
-      <c r="C354" s="3"/>
+      <c r="C354" s="2"/>
     </row>
     <row r="355" ht="14.25" customHeight="1">
-      <c r="C355" s="3"/>
+      <c r="C355" s="2"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
-      <c r="C356" s="3"/>
+      <c r="C356" s="2"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
-      <c r="C357" s="3"/>
+      <c r="C357" s="2"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
-      <c r="C358" s="3"/>
+      <c r="C358" s="2"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
-      <c r="C359" s="3"/>
+      <c r="C359" s="2"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
-      <c r="C360" s="3"/>
+      <c r="C360" s="2"/>
     </row>
     <row r="361" ht="14.25" customHeight="1">
-      <c r="C361" s="3"/>
+      <c r="C361" s="2"/>
     </row>
     <row r="362" ht="14.25" customHeight="1">
-      <c r="C362" s="3"/>
+      <c r="C362" s="2"/>
     </row>
     <row r="363" ht="14.25" customHeight="1">
-      <c r="C363" s="3"/>
+      <c r="C363" s="2"/>
     </row>
     <row r="364" ht="14.25" customHeight="1">
-      <c r="C364" s="3"/>
+      <c r="C364" s="2"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
-      <c r="C365" s="3"/>
+      <c r="C365" s="2"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
-      <c r="C366" s="3"/>
+      <c r="C366" s="2"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
-      <c r="C367" s="3"/>
+      <c r="C367" s="2"/>
     </row>
     <row r="368" ht="14.25" customHeight="1">
-      <c r="C368" s="3"/>
+      <c r="C368" s="2"/>
     </row>
     <row r="369" ht="14.25" customHeight="1">
-      <c r="C369" s="3"/>
+      <c r="C369" s="2"/>
     </row>
     <row r="370" ht="14.25" customHeight="1">
-      <c r="C370" s="3"/>
+      <c r="C370" s="2"/>
     </row>
     <row r="371" ht="14.25" customHeight="1">
-      <c r="C371" s="3"/>
+      <c r="C371" s="2"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
-      <c r="C372" s="3"/>
+      <c r="C372" s="2"/>
     </row>
     <row r="373" ht="14.25" customHeight="1">
-      <c r="C373" s="3"/>
+      <c r="C373" s="2"/>
     </row>
     <row r="374" ht="14.25" customHeight="1">
-      <c r="C374" s="3"/>
+      <c r="C374" s="2"/>
     </row>
     <row r="375" ht="14.25" customHeight="1">
-      <c r="C375" s="3"/>
+      <c r="C375" s="2"/>
     </row>
     <row r="376" ht="14.25" customHeight="1">
-      <c r="C376" s="3"/>
+      <c r="C376" s="2"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
-      <c r="C377" s="3"/>
+      <c r="C377" s="2"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
-      <c r="C378" s="3"/>
+      <c r="C378" s="2"/>
     </row>
     <row r="379" ht="14.25" customHeight="1">
-      <c r="C379" s="3"/>
+      <c r="C379" s="2"/>
     </row>
     <row r="380" ht="14.25" customHeight="1">
-      <c r="C380" s="3"/>
+      <c r="C380" s="2"/>
     </row>
     <row r="381" ht="14.25" customHeight="1">
-      <c r="C381" s="3"/>
+      <c r="C381" s="2"/>
     </row>
     <row r="382" ht="14.25" customHeight="1">
-      <c r="C382" s="3"/>
+      <c r="C382" s="2"/>
     </row>
     <row r="383" ht="14.25" customHeight="1">
-      <c r="C383" s="3"/>
+      <c r="C383" s="2"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
-      <c r="C384" s="3"/>
+      <c r="C384" s="2"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
-      <c r="C385" s="3"/>
+      <c r="C385" s="2"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
-      <c r="C386" s="3"/>
+      <c r="C386" s="2"/>
     </row>
     <row r="387" ht="14.25" customHeight="1">
-      <c r="C387" s="3"/>
+      <c r="C387" s="2"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
-      <c r="C388" s="3"/>
+      <c r="C388" s="2"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
-      <c r="C389" s="3"/>
+      <c r="C389" s="2"/>
     </row>
     <row r="390" ht="14.25" customHeight="1">
-      <c r="C390" s="3"/>
+      <c r="C390" s="2"/>
     </row>
     <row r="391" ht="14.25" customHeight="1">
-      <c r="C391" s="3"/>
+      <c r="C391" s="2"/>
     </row>
     <row r="392" ht="14.25" customHeight="1">
-      <c r="C392" s="3"/>
+      <c r="C392" s="2"/>
     </row>
     <row r="393" ht="14.25" customHeight="1">
-      <c r="C393" s="3"/>
+      <c r="C393" s="2"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
-      <c r="C394" s="3"/>
+      <c r="C394" s="2"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
-      <c r="C395" s="3"/>
+      <c r="C395" s="2"/>
     </row>
     <row r="396" ht="14.25" customHeight="1">
-      <c r="C396" s="3"/>
+      <c r="C396" s="2"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
-      <c r="C397" s="3"/>
+      <c r="C397" s="2"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
-      <c r="C398" s="3"/>
+      <c r="C398" s="2"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
-      <c r="C399" s="3"/>
+      <c r="C399" s="2"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
-      <c r="C400" s="3"/>
+      <c r="C400" s="2"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
-      <c r="C401" s="3"/>
+      <c r="C401" s="2"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
-      <c r="C402" s="3"/>
+      <c r="C402" s="2"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
-      <c r="C403" s="3"/>
+      <c r="C403" s="2"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
-      <c r="C404" s="3"/>
+      <c r="C404" s="2"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
-      <c r="C405" s="3"/>
+      <c r="C405" s="2"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
-      <c r="C406" s="3"/>
+      <c r="C406" s="2"/>
     </row>
     <row r="407" ht="14.25" customHeight="1">
-      <c r="C407" s="3"/>
+      <c r="C407" s="2"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
-      <c r="C408" s="3"/>
+      <c r="C408" s="2"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
-      <c r="C409" s="3"/>
+      <c r="C409" s="2"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
-      <c r="C410" s="3"/>
+      <c r="C410" s="2"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
-      <c r="C411" s="3"/>
+      <c r="C411" s="2"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
-      <c r="C412" s="3"/>
+      <c r="C412" s="2"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
-      <c r="C413" s="3"/>
+      <c r="C413" s="2"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
-      <c r="C414" s="3"/>
+      <c r="C414" s="2"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
-      <c r="C415" s="3"/>
+      <c r="C415" s="2"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
-      <c r="C416" s="3"/>
+      <c r="C416" s="2"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
-      <c r="C417" s="3"/>
+      <c r="C417" s="2"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
-      <c r="C418" s="3"/>
+      <c r="C418" s="2"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
-      <c r="C419" s="3"/>
+      <c r="C419" s="2"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
-      <c r="C420" s="3"/>
+      <c r="C420" s="2"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
-      <c r="C421" s="3"/>
+      <c r="C421" s="2"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
-      <c r="C422" s="3"/>
+      <c r="C422" s="2"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
-      <c r="C423" s="3"/>
+      <c r="C423" s="2"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
-      <c r="C424" s="3"/>
+      <c r="C424" s="2"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
-      <c r="C425" s="3"/>
+      <c r="C425" s="2"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
-      <c r="C426" s="3"/>
+      <c r="C426" s="2"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
-      <c r="C427" s="3"/>
+      <c r="C427" s="2"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
-      <c r="C428" s="3"/>
+      <c r="C428" s="2"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
-      <c r="C429" s="3"/>
+      <c r="C429" s="2"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
-      <c r="C430" s="3"/>
+      <c r="C430" s="2"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
-      <c r="C431" s="3"/>
+      <c r="C431" s="2"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
-      <c r="C432" s="3"/>
+      <c r="C432" s="2"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
-      <c r="C433" s="3"/>
+      <c r="C433" s="2"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
-      <c r="C434" s="3"/>
+      <c r="C434" s="2"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
-      <c r="C435" s="3"/>
+      <c r="C435" s="2"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
-      <c r="C436" s="3"/>
+      <c r="C436" s="2"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
-      <c r="C437" s="3"/>
+      <c r="C437" s="2"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
-      <c r="C438" s="3"/>
+      <c r="C438" s="2"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
-      <c r="C439" s="3"/>
+      <c r="C439" s="2"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
-      <c r="C440" s="3"/>
+      <c r="C440" s="2"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
-      <c r="C441" s="3"/>
+      <c r="C441" s="2"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
-      <c r="C442" s="3"/>
+      <c r="C442" s="2"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
-      <c r="C443" s="3"/>
+      <c r="C443" s="2"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
-      <c r="C444" s="3"/>
+      <c r="C444" s="2"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
-      <c r="C445" s="3"/>
+      <c r="C445" s="2"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
-      <c r="C446" s="3"/>
+      <c r="C446" s="2"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
-      <c r="C447" s="3"/>
+      <c r="C447" s="2"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
-      <c r="C448" s="3"/>
+      <c r="C448" s="2"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
-      <c r="C449" s="3"/>
+      <c r="C449" s="2"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
-      <c r="C450" s="3"/>
+      <c r="C450" s="2"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
-      <c r="C451" s="3"/>
+      <c r="C451" s="2"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
-      <c r="C452" s="3"/>
+      <c r="C452" s="2"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
-      <c r="C453" s="3"/>
+      <c r="C453" s="2"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
-      <c r="C454" s="3"/>
+      <c r="C454" s="2"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
-      <c r="C455" s="3"/>
+      <c r="C455" s="2"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
-      <c r="C456" s="3"/>
+      <c r="C456" s="2"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
-      <c r="C457" s="3"/>
+      <c r="C457" s="2"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
-      <c r="C458" s="3"/>
+      <c r="C458" s="2"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
-      <c r="C459" s="3"/>
+      <c r="C459" s="2"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
-      <c r="C460" s="3"/>
+      <c r="C460" s="2"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
-      <c r="C461" s="3"/>
+      <c r="C461" s="2"/>
     </row>
     <row r="462" ht="14.25" customHeight="1">
-      <c r="C462" s="3"/>
+      <c r="C462" s="2"/>
     </row>
     <row r="463" ht="14.25" customHeight="1">
-      <c r="C463" s="3"/>
+      <c r="C463" s="2"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
-      <c r="C464" s="3"/>
+      <c r="C464" s="2"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
-      <c r="C465" s="3"/>
+      <c r="C465" s="2"/>
     </row>
     <row r="466" ht="14.25" customHeight="1">
-      <c r="C466" s="3"/>
+      <c r="C466" s="2"/>
     </row>
     <row r="467" ht="14.25" customHeight="1">
-      <c r="C467" s="3"/>
+      <c r="C467" s="2"/>
     </row>
     <row r="468" ht="14.25" customHeight="1">
-      <c r="C468" s="3"/>
+      <c r="C468" s="2"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
-      <c r="C469" s="3"/>
+      <c r="C469" s="2"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
-      <c r="C470" s="3"/>
+      <c r="C470" s="2"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
-      <c r="C471" s="3"/>
+      <c r="C471" s="2"/>
     </row>
     <row r="472" ht="14.25" customHeight="1">
-      <c r="C472" s="3"/>
+      <c r="C472" s="2"/>
     </row>
     <row r="473" ht="14.25" customHeight="1">
-      <c r="C473" s="3"/>
+      <c r="C473" s="2"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
-      <c r="C474" s="3"/>
+      <c r="C474" s="2"/>
     </row>
     <row r="475" ht="14.25" customHeight="1">
-      <c r="C475" s="3"/>
+      <c r="C475" s="2"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
-      <c r="C476" s="3"/>
+      <c r="C476" s="2"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
-      <c r="C477" s="3"/>
+      <c r="C477" s="2"/>
     </row>
     <row r="478" ht="14.25" customHeight="1">
-      <c r="C478" s="3"/>
+      <c r="C478" s="2"/>
     </row>
     <row r="479" ht="14.25" customHeight="1">
-      <c r="C479" s="3"/>
+      <c r="C479" s="2"/>
     </row>
     <row r="480" ht="14.25" customHeight="1">
-      <c r="C480" s="3"/>
+      <c r="C480" s="2"/>
     </row>
     <row r="481" ht="14.25" customHeight="1">
-      <c r="C481" s="3"/>
+      <c r="C481" s="2"/>
     </row>
     <row r="482" ht="14.25" customHeight="1">
-      <c r="C482" s="3"/>
+      <c r="C482" s="2"/>
     </row>
     <row r="483" ht="14.25" customHeight="1">
-      <c r="C483" s="3"/>
+      <c r="C483" s="2"/>
     </row>
     <row r="484" ht="14.25" customHeight="1">
-      <c r="C484" s="3"/>
+      <c r="C484" s="2"/>
     </row>
     <row r="485" ht="14.25" customHeight="1">
-      <c r="C485" s="3"/>
+      <c r="C485" s="2"/>
     </row>
     <row r="486" ht="14.25" customHeight="1">
-      <c r="C486" s="3"/>
+      <c r="C486" s="2"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
-      <c r="C487" s="3"/>
+      <c r="C487" s="2"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
-      <c r="C488" s="3"/>
+      <c r="C488" s="2"/>
     </row>
     <row r="489" ht="14.25" customHeight="1">
-      <c r="C489" s="3"/>
+      <c r="C489" s="2"/>
     </row>
     <row r="490" ht="14.25" customHeight="1">
-      <c r="C490" s="3"/>
+      <c r="C490" s="2"/>
     </row>
     <row r="491" ht="14.25" customHeight="1">
-      <c r="C491" s="3"/>
+      <c r="C491" s="2"/>
     </row>
     <row r="492" ht="14.25" customHeight="1">
-      <c r="C492" s="3"/>
+      <c r="C492" s="2"/>
     </row>
     <row r="493" ht="14.25" customHeight="1">
-      <c r="C493" s="3"/>
+      <c r="C493" s="2"/>
     </row>
     <row r="494" ht="14.25" customHeight="1">
-      <c r="C494" s="3"/>
+      <c r="C494" s="2"/>
     </row>
     <row r="495" ht="14.25" customHeight="1">
-      <c r="C495" s="3"/>
+      <c r="C495" s="2"/>
     </row>
     <row r="496" ht="14.25" customHeight="1">
-      <c r="C496" s="3"/>
+      <c r="C496" s="2"/>
     </row>
     <row r="497" ht="14.25" customHeight="1">
-      <c r="C497" s="3"/>
+      <c r="C497" s="2"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
-      <c r="C498" s="3"/>
+      <c r="C498" s="2"/>
     </row>
     <row r="499" ht="14.25" customHeight="1">
-      <c r="C499" s="3"/>
+      <c r="C499" s="2"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
-      <c r="C500" s="3"/>
+      <c r="C500" s="2"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
-      <c r="C501" s="3"/>
+      <c r="C501" s="2"/>
     </row>
     <row r="502" ht="14.25" customHeight="1">
-      <c r="C502" s="3"/>
+      <c r="C502" s="2"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
-      <c r="C503" s="3"/>
+      <c r="C503" s="2"/>
     </row>
     <row r="504" ht="14.25" customHeight="1">
-      <c r="C504" s="3"/>
+      <c r="C504" s="2"/>
     </row>
     <row r="505" ht="14.25" customHeight="1">
-      <c r="C505" s="3"/>
+      <c r="C505" s="2"/>
     </row>
     <row r="506" ht="14.25" customHeight="1">
-      <c r="C506" s="3"/>
+      <c r="C506" s="2"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
-      <c r="C507" s="3"/>
+      <c r="C507" s="2"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
-      <c r="C508" s="3"/>
+      <c r="C508" s="2"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
-      <c r="C509" s="3"/>
+      <c r="C509" s="2"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
-      <c r="C510" s="3"/>
+      <c r="C510" s="2"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
-      <c r="C511" s="3"/>
+      <c r="C511" s="2"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
-      <c r="C512" s="3"/>
+      <c r="C512" s="2"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
-      <c r="C513" s="3"/>
+      <c r="C513" s="2"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
-      <c r="C514" s="3"/>
+      <c r="C514" s="2"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
-      <c r="C515" s="3"/>
+      <c r="C515" s="2"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
-      <c r="C516" s="3"/>
+      <c r="C516" s="2"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
-      <c r="C517" s="3"/>
+      <c r="C517" s="2"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
-      <c r="C518" s="3"/>
+      <c r="C518" s="2"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
-      <c r="C519" s="3"/>
+      <c r="C519" s="2"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
-      <c r="C520" s="3"/>
+      <c r="C520" s="2"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
-      <c r="C521" s="3"/>
+      <c r="C521" s="2"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
-      <c r="C522" s="3"/>
+      <c r="C522" s="2"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
-      <c r="C523" s="3"/>
+      <c r="C523" s="2"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
-      <c r="C524" s="3"/>
+      <c r="C524" s="2"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
-      <c r="C525" s="3"/>
+      <c r="C525" s="2"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
-      <c r="C526" s="3"/>
+      <c r="C526" s="2"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
-      <c r="C527" s="3"/>
+      <c r="C527" s="2"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
-      <c r="C528" s="3"/>
+      <c r="C528" s="2"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
-      <c r="C529" s="3"/>
+      <c r="C529" s="2"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
-      <c r="C530" s="3"/>
+      <c r="C530" s="2"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
-      <c r="C531" s="3"/>
+      <c r="C531" s="2"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
-      <c r="C532" s="3"/>
+      <c r="C532" s="2"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
-      <c r="C533" s="3"/>
+      <c r="C533" s="2"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
-      <c r="C534" s="3"/>
+      <c r="C534" s="2"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
-      <c r="C535" s="3"/>
+      <c r="C535" s="2"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
-      <c r="C536" s="3"/>
+      <c r="C536" s="2"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
-      <c r="C537" s="3"/>
+      <c r="C537" s="2"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
-      <c r="C538" s="3"/>
+      <c r="C538" s="2"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
-      <c r="C539" s="3"/>
+      <c r="C539" s="2"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
-      <c r="C540" s="3"/>
+      <c r="C540" s="2"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
-      <c r="C541" s="3"/>
+      <c r="C541" s="2"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
-      <c r="C542" s="3"/>
+      <c r="C542" s="2"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
-      <c r="C543" s="3"/>
+      <c r="C543" s="2"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
-      <c r="C544" s="3"/>
+      <c r="C544" s="2"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
-      <c r="C545" s="3"/>
+      <c r="C545" s="2"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
-      <c r="C546" s="3"/>
+      <c r="C546" s="2"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
-      <c r="C547" s="3"/>
+      <c r="C547" s="2"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
-      <c r="C548" s="3"/>
+      <c r="C548" s="2"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
-      <c r="C549" s="3"/>
+      <c r="C549" s="2"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
-      <c r="C550" s="3"/>
+      <c r="C550" s="2"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
-      <c r="C551" s="3"/>
+      <c r="C551" s="2"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
-      <c r="C552" s="3"/>
+      <c r="C552" s="2"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
-      <c r="C553" s="3"/>
+      <c r="C553" s="2"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
-      <c r="C554" s="3"/>
+      <c r="C554" s="2"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
-      <c r="C555" s="3"/>
+      <c r="C555" s="2"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
-      <c r="C556" s="3"/>
+      <c r="C556" s="2"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
-      <c r="C557" s="3"/>
+      <c r="C557" s="2"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
-      <c r="C558" s="3"/>
+      <c r="C558" s="2"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
-      <c r="C559" s="3"/>
+      <c r="C559" s="2"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
-      <c r="C560" s="3"/>
+      <c r="C560" s="2"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
-      <c r="C561" s="3"/>
+      <c r="C561" s="2"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
-      <c r="C562" s="3"/>
+      <c r="C562" s="2"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
-      <c r="C563" s="3"/>
+      <c r="C563" s="2"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
-      <c r="C564" s="3"/>
+      <c r="C564" s="2"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
-      <c r="C565" s="3"/>
+      <c r="C565" s="2"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
-      <c r="C566" s="3"/>
+      <c r="C566" s="2"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
-      <c r="C567" s="3"/>
+      <c r="C567" s="2"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
-      <c r="C568" s="3"/>
+      <c r="C568" s="2"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
-      <c r="C569" s="3"/>
+      <c r="C569" s="2"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
-      <c r="C570" s="3"/>
+      <c r="C570" s="2"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
-      <c r="C571" s="3"/>
+      <c r="C571" s="2"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
-      <c r="C572" s="3"/>
+      <c r="C572" s="2"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
-      <c r="C573" s="3"/>
+      <c r="C573" s="2"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
-      <c r="C574" s="3"/>
+      <c r="C574" s="2"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
-      <c r="C575" s="3"/>
+      <c r="C575" s="2"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
-      <c r="C576" s="3"/>
+      <c r="C576" s="2"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
-      <c r="C577" s="3"/>
+      <c r="C577" s="2"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
-      <c r="C578" s="3"/>
+      <c r="C578" s="2"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
-      <c r="C579" s="3"/>
+      <c r="C579" s="2"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
-      <c r="C580" s="3"/>
+      <c r="C580" s="2"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
-      <c r="C581" s="3"/>
+      <c r="C581" s="2"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
-      <c r="C582" s="3"/>
+      <c r="C582" s="2"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
-      <c r="C583" s="3"/>
+      <c r="C583" s="2"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
-      <c r="C584" s="3"/>
+      <c r="C584" s="2"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
-      <c r="C585" s="3"/>
+      <c r="C585" s="2"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
-      <c r="C586" s="3"/>
+      <c r="C586" s="2"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="C587" s="3"/>
+      <c r="C587" s="2"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="C588" s="3"/>
+      <c r="C588" s="2"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="C589" s="3"/>
+      <c r="C589" s="2"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
-      <c r="C590" s="3"/>
+      <c r="C590" s="2"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
-      <c r="C591" s="3"/>
+      <c r="C591" s="2"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
-      <c r="C592" s="3"/>
+      <c r="C592" s="2"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="C593" s="3"/>
+      <c r="C593" s="2"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="C594" s="3"/>
+      <c r="C594" s="2"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
-      <c r="C595" s="3"/>
+      <c r="C595" s="2"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
-      <c r="C596" s="3"/>
+      <c r="C596" s="2"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
-      <c r="C597" s="3"/>
+      <c r="C597" s="2"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
-      <c r="C598" s="3"/>
+      <c r="C598" s="2"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
-      <c r="C599" s="3"/>
+      <c r="C599" s="2"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
-      <c r="C600" s="3"/>
+      <c r="C600" s="2"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
-      <c r="C601" s="3"/>
+      <c r="C601" s="2"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
-      <c r="C602" s="3"/>
+      <c r="C602" s="2"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
-      <c r="C603" s="3"/>
+      <c r="C603" s="2"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="C604" s="3"/>
+      <c r="C604" s="2"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="C605" s="3"/>
+      <c r="C605" s="2"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="C606" s="3"/>
+      <c r="C606" s="2"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="C607" s="3"/>
+      <c r="C607" s="2"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="C608" s="3"/>
+      <c r="C608" s="2"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="C609" s="3"/>
+      <c r="C609" s="2"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="C610" s="3"/>
+      <c r="C610" s="2"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="C611" s="3"/>
+      <c r="C611" s="2"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="C612" s="3"/>
+      <c r="C612" s="2"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="C613" s="3"/>
+      <c r="C613" s="2"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="C614" s="3"/>
+      <c r="C614" s="2"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="C615" s="3"/>
+      <c r="C615" s="2"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="C616" s="3"/>
+      <c r="C616" s="2"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="C617" s="3"/>
+      <c r="C617" s="2"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="C618" s="3"/>
+      <c r="C618" s="2"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="C619" s="3"/>
+      <c r="C619" s="2"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="C620" s="3"/>
+      <c r="C620" s="2"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="C621" s="3"/>
+      <c r="C621" s="2"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="C622" s="3"/>
+      <c r="C622" s="2"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="C623" s="3"/>
+      <c r="C623" s="2"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="C624" s="3"/>
+      <c r="C624" s="2"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="C625" s="3"/>
+      <c r="C625" s="2"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="C626" s="3"/>
+      <c r="C626" s="2"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="C627" s="3"/>
+      <c r="C627" s="2"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="C628" s="3"/>
+      <c r="C628" s="2"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="C629" s="3"/>
+      <c r="C629" s="2"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="C630" s="3"/>
+      <c r="C630" s="2"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="C631" s="3"/>
+      <c r="C631" s="2"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="C632" s="3"/>
+      <c r="C632" s="2"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="C633" s="3"/>
+      <c r="C633" s="2"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="C634" s="3"/>
+      <c r="C634" s="2"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
-      <c r="C635" s="3"/>
+      <c r="C635" s="2"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
-      <c r="C636" s="3"/>
+      <c r="C636" s="2"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
-      <c r="C637" s="3"/>
+      <c r="C637" s="2"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
-      <c r="C638" s="3"/>
+      <c r="C638" s="2"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
-      <c r="C639" s="3"/>
+      <c r="C639" s="2"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
-      <c r="C640" s="3"/>
+      <c r="C640" s="2"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
-      <c r="C641" s="3"/>
+      <c r="C641" s="2"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
-      <c r="C642" s="3"/>
+      <c r="C642" s="2"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
-      <c r="C643" s="3"/>
+      <c r="C643" s="2"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="C644" s="3"/>
+      <c r="C644" s="2"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
-      <c r="C645" s="3"/>
+      <c r="C645" s="2"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
-      <c r="C646" s="3"/>
+      <c r="C646" s="2"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
-      <c r="C647" s="3"/>
+      <c r="C647" s="2"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
-      <c r="C648" s="3"/>
+      <c r="C648" s="2"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
-      <c r="C649" s="3"/>
+      <c r="C649" s="2"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
-      <c r="C650" s="3"/>
+      <c r="C650" s="2"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
-      <c r="C651" s="3"/>
+      <c r="C651" s="2"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="C652" s="3"/>
+      <c r="C652" s="2"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
-      <c r="C653" s="3"/>
+      <c r="C653" s="2"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
-      <c r="C654" s="3"/>
+      <c r="C654" s="2"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
-      <c r="C655" s="3"/>
+      <c r="C655" s="2"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
-      <c r="C656" s="3"/>
+      <c r="C656" s="2"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
-      <c r="C657" s="3"/>
+      <c r="C657" s="2"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
-      <c r="C658" s="3"/>
+      <c r="C658" s="2"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
-      <c r="C659" s="3"/>
+      <c r="C659" s="2"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
-      <c r="C660" s="3"/>
+      <c r="C660" s="2"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
-      <c r="C661" s="3"/>
+      <c r="C661" s="2"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
-      <c r="C662" s="3"/>
+      <c r="C662" s="2"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
-      <c r="C663" s="3"/>
+      <c r="C663" s="2"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
-      <c r="C664" s="3"/>
+      <c r="C664" s="2"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
-      <c r="C665" s="3"/>
+      <c r="C665" s="2"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
-      <c r="C666" s="3"/>
+      <c r="C666" s="2"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
-      <c r="C667" s="3"/>
+      <c r="C667" s="2"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
-      <c r="C668" s="3"/>
+      <c r="C668" s="2"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
-      <c r="C669" s="3"/>
+      <c r="C669" s="2"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
-      <c r="C670" s="3"/>
+      <c r="C670" s="2"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
-      <c r="C671" s="3"/>
+      <c r="C671" s="2"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
-      <c r="C672" s="3"/>
+      <c r="C672" s="2"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
-      <c r="C673" s="3"/>
+      <c r="C673" s="2"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
-      <c r="C674" s="3"/>
+      <c r="C674" s="2"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
-      <c r="C675" s="3"/>
+      <c r="C675" s="2"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
-      <c r="C676" s="3"/>
+      <c r="C676" s="2"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
-      <c r="C677" s="3"/>
+      <c r="C677" s="2"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
-      <c r="C678" s="3"/>
+      <c r="C678" s="2"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
-      <c r="C679" s="3"/>
+      <c r="C679" s="2"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
-      <c r="C680" s="3"/>
+      <c r="C680" s="2"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
-      <c r="C681" s="3"/>
+      <c r="C681" s="2"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
-      <c r="C682" s="3"/>
+      <c r="C682" s="2"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
-      <c r="C683" s="3"/>
+      <c r="C683" s="2"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
-      <c r="C684" s="3"/>
+      <c r="C684" s="2"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
-      <c r="C685" s="3"/>
+      <c r="C685" s="2"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
-      <c r="C686" s="3"/>
+      <c r="C686" s="2"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
-      <c r="C687" s="3"/>
+      <c r="C687" s="2"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
-      <c r="C688" s="3"/>
+      <c r="C688" s="2"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
-      <c r="C689" s="3"/>
+      <c r="C689" s="2"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
-      <c r="C690" s="3"/>
+      <c r="C690" s="2"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
-      <c r="C691" s="3"/>
+      <c r="C691" s="2"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
-      <c r="C692" s="3"/>
+      <c r="C692" s="2"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
-      <c r="C693" s="3"/>
+      <c r="C693" s="2"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
-      <c r="C694" s="3"/>
+      <c r="C694" s="2"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
-      <c r="C695" s="3"/>
+      <c r="C695" s="2"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
-      <c r="C696" s="3"/>
+      <c r="C696" s="2"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
-      <c r="C697" s="3"/>
+      <c r="C697" s="2"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
-      <c r="C698" s="3"/>
+      <c r="C698" s="2"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
-      <c r="C699" s="3"/>
+      <c r="C699" s="2"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
-      <c r="C700" s="3"/>
+      <c r="C700" s="2"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
-      <c r="C701" s="3"/>
+      <c r="C701" s="2"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
-      <c r="C702" s="3"/>
+      <c r="C702" s="2"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
-      <c r="C703" s="3"/>
+      <c r="C703" s="2"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
-      <c r="C704" s="3"/>
+      <c r="C704" s="2"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
-      <c r="C705" s="3"/>
+      <c r="C705" s="2"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
-      <c r="C706" s="3"/>
+      <c r="C706" s="2"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
-      <c r="C707" s="3"/>
+      <c r="C707" s="2"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
-      <c r="C708" s="3"/>
+      <c r="C708" s="2"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
-      <c r="C709" s="3"/>
+      <c r="C709" s="2"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
-      <c r="C710" s="3"/>
+      <c r="C710" s="2"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
-      <c r="C711" s="3"/>
+      <c r="C711" s="2"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
-      <c r="C712" s="3"/>
+      <c r="C712" s="2"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
-      <c r="C713" s="3"/>
+      <c r="C713" s="2"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
-      <c r="C714" s="3"/>
+      <c r="C714" s="2"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
-      <c r="C715" s="3"/>
+      <c r="C715" s="2"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
-      <c r="C716" s="3"/>
+      <c r="C716" s="2"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
-      <c r="C717" s="3"/>
+      <c r="C717" s="2"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
-      <c r="C718" s="3"/>
+      <c r="C718" s="2"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
-      <c r="C719" s="3"/>
+      <c r="C719" s="2"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
-      <c r="C720" s="3"/>
+      <c r="C720" s="2"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
-      <c r="C721" s="3"/>
+      <c r="C721" s="2"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
-      <c r="C722" s="3"/>
+      <c r="C722" s="2"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
-      <c r="C723" s="3"/>
+      <c r="C723" s="2"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
-      <c r="C724" s="3"/>
+      <c r="C724" s="2"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
-      <c r="C725" s="3"/>
+      <c r="C725" s="2"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
-      <c r="C726" s="3"/>
+      <c r="C726" s="2"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
-      <c r="C727" s="3"/>
+      <c r="C727" s="2"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
-      <c r="C728" s="3"/>
+      <c r="C728" s="2"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
-      <c r="C729" s="3"/>
+      <c r="C729" s="2"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
-      <c r="C730" s="3"/>
+      <c r="C730" s="2"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
-      <c r="C731" s="3"/>
+      <c r="C731" s="2"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
-      <c r="C732" s="3"/>
+      <c r="C732" s="2"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
-      <c r="C733" s="3"/>
+      <c r="C733" s="2"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
-      <c r="C734" s="3"/>
+      <c r="C734" s="2"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
-      <c r="C735" s="3"/>
+      <c r="C735" s="2"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
-      <c r="C736" s="3"/>
+      <c r="C736" s="2"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
-      <c r="C737" s="3"/>
+      <c r="C737" s="2"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
-      <c r="C738" s="3"/>
+      <c r="C738" s="2"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
-      <c r="C739" s="3"/>
+      <c r="C739" s="2"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
-      <c r="C740" s="3"/>
+      <c r="C740" s="2"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
-      <c r="C741" s="3"/>
+      <c r="C741" s="2"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
-      <c r="C742" s="3"/>
+      <c r="C742" s="2"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
-      <c r="C743" s="3"/>
+      <c r="C743" s="2"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
-      <c r="C744" s="3"/>
+      <c r="C744" s="2"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
-      <c r="C745" s="3"/>
+      <c r="C745" s="2"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
-      <c r="C746" s="3"/>
+      <c r="C746" s="2"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
-      <c r="C747" s="3"/>
+      <c r="C747" s="2"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
-      <c r="C748" s="3"/>
+      <c r="C748" s="2"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
-      <c r="C749" s="3"/>
+      <c r="C749" s="2"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
-      <c r="C750" s="3"/>
+      <c r="C750" s="2"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
-      <c r="C751" s="3"/>
+      <c r="C751" s="2"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
-      <c r="C752" s="3"/>
+      <c r="C752" s="2"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
-      <c r="C753" s="3"/>
+      <c r="C753" s="2"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
-      <c r="C754" s="3"/>
+      <c r="C754" s="2"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
-      <c r="C755" s="3"/>
+      <c r="C755" s="2"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
-      <c r="C756" s="3"/>
+      <c r="C756" s="2"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
-      <c r="C757" s="3"/>
+      <c r="C757" s="2"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
-      <c r="C758" s="3"/>
+      <c r="C758" s="2"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
-      <c r="C759" s="3"/>
+      <c r="C759" s="2"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
-      <c r="C760" s="3"/>
+      <c r="C760" s="2"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
-      <c r="C761" s="3"/>
+      <c r="C761" s="2"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
-      <c r="C762" s="3"/>
+      <c r="C762" s="2"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
-      <c r="C763" s="3"/>
+      <c r="C763" s="2"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
-      <c r="C764" s="3"/>
+      <c r="C764" s="2"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
-      <c r="C765" s="3"/>
+      <c r="C765" s="2"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
-      <c r="C766" s="3"/>
+      <c r="C766" s="2"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
-      <c r="C767" s="3"/>
+      <c r="C767" s="2"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
-      <c r="C768" s="3"/>
+      <c r="C768" s="2"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
-      <c r="C769" s="3"/>
+      <c r="C769" s="2"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
-      <c r="C770" s="3"/>
+      <c r="C770" s="2"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
-      <c r="C771" s="3"/>
+      <c r="C771" s="2"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
-      <c r="C772" s="3"/>
+      <c r="C772" s="2"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
-      <c r="C773" s="3"/>
+      <c r="C773" s="2"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
-      <c r="C774" s="3"/>
+      <c r="C774" s="2"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
-      <c r="C775" s="3"/>
+      <c r="C775" s="2"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
-      <c r="C776" s="3"/>
+      <c r="C776" s="2"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
-      <c r="C777" s="3"/>
+      <c r="C777" s="2"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
-      <c r="C778" s="3"/>
+      <c r="C778" s="2"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
-      <c r="C779" s="3"/>
+      <c r="C779" s="2"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
-      <c r="C780" s="3"/>
+      <c r="C780" s="2"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
-      <c r="C781" s="3"/>
+      <c r="C781" s="2"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
-      <c r="C782" s="3"/>
+      <c r="C782" s="2"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
-      <c r="C783" s="3"/>
+      <c r="C783" s="2"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
-      <c r="C784" s="3"/>
+      <c r="C784" s="2"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
-      <c r="C785" s="3"/>
+      <c r="C785" s="2"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
-      <c r="C786" s="3"/>
+      <c r="C786" s="2"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
-      <c r="C787" s="3"/>
+      <c r="C787" s="2"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
-      <c r="C788" s="3"/>
+      <c r="C788" s="2"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
-      <c r="C789" s="3"/>
+      <c r="C789" s="2"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
-      <c r="C790" s="3"/>
+      <c r="C790" s="2"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
-      <c r="C791" s="3"/>
+      <c r="C791" s="2"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
-      <c r="C792" s="3"/>
+      <c r="C792" s="2"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
-      <c r="C793" s="3"/>
+      <c r="C793" s="2"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
-      <c r="C794" s="3"/>
+      <c r="C794" s="2"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
-      <c r="C795" s="3"/>
+      <c r="C795" s="2"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
-      <c r="C796" s="3"/>
+      <c r="C796" s="2"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
-      <c r="C797" s="3"/>
+      <c r="C797" s="2"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
-      <c r="C798" s="3"/>
+      <c r="C798" s="2"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
-      <c r="C799" s="3"/>
+      <c r="C799" s="2"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
-      <c r="C800" s="3"/>
+      <c r="C800" s="2"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
-      <c r="C801" s="3"/>
+      <c r="C801" s="2"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
-      <c r="C802" s="3"/>
+      <c r="C802" s="2"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
-      <c r="C803" s="3"/>
+      <c r="C803" s="2"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
-      <c r="C804" s="3"/>
+      <c r="C804" s="2"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
-      <c r="C805" s="3"/>
+      <c r="C805" s="2"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
-      <c r="C806" s="3"/>
+      <c r="C806" s="2"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
-      <c r="C807" s="3"/>
+      <c r="C807" s="2"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
-      <c r="C808" s="3"/>
+      <c r="C808" s="2"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
-      <c r="C809" s="3"/>
+      <c r="C809" s="2"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
-      <c r="C810" s="3"/>
+      <c r="C810" s="2"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
-      <c r="C811" s="3"/>
+      <c r="C811" s="2"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
-      <c r="C812" s="3"/>
+      <c r="C812" s="2"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
-      <c r="C813" s="3"/>
+      <c r="C813" s="2"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
-      <c r="C814" s="3"/>
+      <c r="C814" s="2"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
-      <c r="C815" s="3"/>
+      <c r="C815" s="2"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
-      <c r="C816" s="3"/>
+      <c r="C816" s="2"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
-      <c r="C817" s="3"/>
+      <c r="C817" s="2"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
-      <c r="C818" s="3"/>
+      <c r="C818" s="2"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
-      <c r="C819" s="3"/>
+      <c r="C819" s="2"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
-      <c r="C820" s="3"/>
+      <c r="C820" s="2"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
-      <c r="C821" s="3"/>
+      <c r="C821" s="2"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
-      <c r="C822" s="3"/>
+      <c r="C822" s="2"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
-      <c r="C823" s="3"/>
+      <c r="C823" s="2"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
-      <c r="C824" s="3"/>
+      <c r="C824" s="2"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
-      <c r="C825" s="3"/>
+      <c r="C825" s="2"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
-      <c r="C826" s="3"/>
+      <c r="C826" s="2"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
-      <c r="C827" s="3"/>
+      <c r="C827" s="2"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
-      <c r="C828" s="3"/>
+      <c r="C828" s="2"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
-      <c r="C829" s="3"/>
+      <c r="C829" s="2"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
-      <c r="C830" s="3"/>
+      <c r="C830" s="2"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
-      <c r="C831" s="3"/>
+      <c r="C831" s="2"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
-      <c r="C832" s="3"/>
+      <c r="C832" s="2"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
-      <c r="C833" s="3"/>
+      <c r="C833" s="2"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
-      <c r="C834" s="3"/>
+      <c r="C834" s="2"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
-      <c r="C835" s="3"/>
+      <c r="C835" s="2"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
-      <c r="C836" s="3"/>
+      <c r="C836" s="2"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
-      <c r="C837" s="3"/>
+      <c r="C837" s="2"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
-      <c r="C838" s="3"/>
+      <c r="C838" s="2"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
-      <c r="C839" s="3"/>
+      <c r="C839" s="2"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
-      <c r="C840" s="3"/>
+      <c r="C840" s="2"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
-      <c r="C841" s="3"/>
+      <c r="C841" s="2"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
-      <c r="C842" s="3"/>
+      <c r="C842" s="2"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
-      <c r="C843" s="3"/>
+      <c r="C843" s="2"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
-      <c r="C844" s="3"/>
+      <c r="C844" s="2"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
-      <c r="C845" s="3"/>
+      <c r="C845" s="2"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
-      <c r="C846" s="3"/>
+      <c r="C846" s="2"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
-      <c r="C847" s="3"/>
+      <c r="C847" s="2"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
-      <c r="C848" s="3"/>
+      <c r="C848" s="2"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
-      <c r="C849" s="3"/>
+      <c r="C849" s="2"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
-      <c r="C850" s="3"/>
+      <c r="C850" s="2"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
-      <c r="C851" s="3"/>
+      <c r="C851" s="2"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
-      <c r="C852" s="3"/>
+      <c r="C852" s="2"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
-      <c r="C853" s="3"/>
+      <c r="C853" s="2"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
-      <c r="C854" s="3"/>
+      <c r="C854" s="2"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
-      <c r="C855" s="3"/>
+      <c r="C855" s="2"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
-      <c r="C856" s="3"/>
+      <c r="C856" s="2"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
-      <c r="C857" s="3"/>
+      <c r="C857" s="2"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
-      <c r="C858" s="3"/>
+      <c r="C858" s="2"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
-      <c r="C859" s="3"/>
+      <c r="C859" s="2"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
-      <c r="C860" s="3"/>
+      <c r="C860" s="2"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
-      <c r="C861" s="3"/>
+      <c r="C861" s="2"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
-      <c r="C862" s="3"/>
+      <c r="C862" s="2"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
-      <c r="C863" s="3"/>
+      <c r="C863" s="2"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
-      <c r="C864" s="3"/>
+      <c r="C864" s="2"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
-      <c r="C865" s="3"/>
+      <c r="C865" s="2"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
-      <c r="C866" s="3"/>
+      <c r="C866" s="2"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
-      <c r="C867" s="3"/>
+      <c r="C867" s="2"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
-      <c r="C868" s="3"/>
+      <c r="C868" s="2"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
-      <c r="C869" s="3"/>
+      <c r="C869" s="2"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
-      <c r="C870" s="3"/>
+      <c r="C870" s="2"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
-      <c r="C871" s="3"/>
+      <c r="C871" s="2"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
-      <c r="C872" s="3"/>
+      <c r="C872" s="2"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
-      <c r="C873" s="3"/>
+      <c r="C873" s="2"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
-      <c r="C874" s="3"/>
+      <c r="C874" s="2"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
-      <c r="C875" s="3"/>
+      <c r="C875" s="2"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
-      <c r="C876" s="3"/>
+      <c r="C876" s="2"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
-      <c r="C877" s="3"/>
+      <c r="C877" s="2"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
-      <c r="C878" s="3"/>
+      <c r="C878" s="2"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
-      <c r="C879" s="3"/>
+      <c r="C879" s="2"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
-      <c r="C880" s="3"/>
+      <c r="C880" s="2"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
-      <c r="C881" s="3"/>
+      <c r="C881" s="2"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
-      <c r="C882" s="3"/>
+      <c r="C882" s="2"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
-      <c r="C883" s="3"/>
+      <c r="C883" s="2"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
-      <c r="C884" s="3"/>
+      <c r="C884" s="2"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
-      <c r="C885" s="3"/>
+      <c r="C885" s="2"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
-      <c r="C886" s="3"/>
+      <c r="C886" s="2"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
-      <c r="C887" s="3"/>
+      <c r="C887" s="2"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
-      <c r="C888" s="3"/>
+      <c r="C888" s="2"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
-      <c r="C889" s="3"/>
+      <c r="C889" s="2"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
-      <c r="C890" s="3"/>
+      <c r="C890" s="2"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
-      <c r="C891" s="3"/>
+      <c r="C891" s="2"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
-      <c r="C892" s="3"/>
+      <c r="C892" s="2"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
-      <c r="C893" s="3"/>
+      <c r="C893" s="2"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
-      <c r="C894" s="3"/>
+      <c r="C894" s="2"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
-      <c r="C895" s="3"/>
+      <c r="C895" s="2"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
-      <c r="C896" s="3"/>
+      <c r="C896" s="2"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
-      <c r="C897" s="3"/>
+      <c r="C897" s="2"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
-      <c r="C898" s="3"/>
+      <c r="C898" s="2"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
-      <c r="C899" s="3"/>
+      <c r="C899" s="2"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
-      <c r="C900" s="3"/>
+      <c r="C900" s="2"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
-      <c r="C901" s="3"/>
+      <c r="C901" s="2"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
-      <c r="C902" s="3"/>
+      <c r="C902" s="2"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
-      <c r="C903" s="3"/>
+      <c r="C903" s="2"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
-      <c r="C904" s="3"/>
+      <c r="C904" s="2"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
-      <c r="C905" s="3"/>
+      <c r="C905" s="2"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
-      <c r="C906" s="3"/>
+      <c r="C906" s="2"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
-      <c r="C907" s="3"/>
+      <c r="C907" s="2"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
-      <c r="C908" s="3"/>
+      <c r="C908" s="2"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
-      <c r="C909" s="3"/>
+      <c r="C909" s="2"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
-      <c r="C910" s="3"/>
+      <c r="C910" s="2"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
-      <c r="C911" s="3"/>
+      <c r="C911" s="2"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
-      <c r="C912" s="3"/>
+      <c r="C912" s="2"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
-      <c r="C913" s="3"/>
+      <c r="C913" s="2"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
-      <c r="C914" s="3"/>
+      <c r="C914" s="2"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
-      <c r="C915" s="3"/>
+      <c r="C915" s="2"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
-      <c r="C916" s="3"/>
+      <c r="C916" s="2"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
-      <c r="C917" s="3"/>
+      <c r="C917" s="2"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
-      <c r="C918" s="3"/>
+      <c r="C918" s="2"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
-      <c r="C919" s="3"/>
+      <c r="C919" s="2"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
-      <c r="C920" s="3"/>
+      <c r="C920" s="2"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
-      <c r="C921" s="3"/>
+      <c r="C921" s="2"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
-      <c r="C922" s="3"/>
+      <c r="C922" s="2"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
-      <c r="C923" s="3"/>
+      <c r="C923" s="2"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
-      <c r="C924" s="3"/>
+      <c r="C924" s="2"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
-      <c r="C925" s="3"/>
+      <c r="C925" s="2"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
-      <c r="C926" s="3"/>
+      <c r="C926" s="2"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
-      <c r="C927" s="3"/>
+      <c r="C927" s="2"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
-      <c r="C928" s="3"/>
+      <c r="C928" s="2"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
-      <c r="C929" s="3"/>
+      <c r="C929" s="2"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
-      <c r="C930" s="3"/>
+      <c r="C930" s="2"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
-      <c r="C931" s="3"/>
+      <c r="C931" s="2"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
-      <c r="C932" s="3"/>
+      <c r="C932" s="2"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
-      <c r="C933" s="3"/>
+      <c r="C933" s="2"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
-      <c r="C934" s="3"/>
+      <c r="C934" s="2"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
-      <c r="C935" s="3"/>
+      <c r="C935" s="2"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
-      <c r="C936" s="3"/>
+      <c r="C936" s="2"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
-      <c r="C937" s="3"/>
+      <c r="C937" s="2"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
-      <c r="C938" s="3"/>
+      <c r="C938" s="2"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
-      <c r="C939" s="3"/>
+      <c r="C939" s="2"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
-      <c r="C940" s="3"/>
+      <c r="C940" s="2"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
-      <c r="C941" s="3"/>
+      <c r="C941" s="2"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
-      <c r="C942" s="3"/>
+      <c r="C942" s="2"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
-      <c r="C943" s="3"/>
+      <c r="C943" s="2"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
-      <c r="C944" s="3"/>
+      <c r="C944" s="2"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
-      <c r="C945" s="3"/>
+      <c r="C945" s="2"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
-      <c r="C946" s="3"/>
+      <c r="C946" s="2"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
-      <c r="C947" s="3"/>
+      <c r="C947" s="2"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
-      <c r="C948" s="3"/>
+      <c r="C948" s="2"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
-      <c r="C949" s="3"/>
+      <c r="C949" s="2"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
-      <c r="C950" s="3"/>
+      <c r="C950" s="2"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
-      <c r="C951" s="3"/>
+      <c r="C951" s="2"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
-      <c r="C952" s="3"/>
+      <c r="C952" s="2"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
-      <c r="C953" s="3"/>
+      <c r="C953" s="2"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
-      <c r="C954" s="3"/>
+      <c r="C954" s="2"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
-      <c r="C955" s="3"/>
+      <c r="C955" s="2"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
-      <c r="C956" s="3"/>
+      <c r="C956" s="2"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
-      <c r="C957" s="3"/>
+      <c r="C957" s="2"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
-      <c r="C958" s="3"/>
+      <c r="C958" s="2"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
-      <c r="C959" s="3"/>
+      <c r="C959" s="2"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
-      <c r="C960" s="3"/>
+      <c r="C960" s="2"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
-      <c r="C961" s="3"/>
+      <c r="C961" s="2"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
-      <c r="C962" s="3"/>
+      <c r="C962" s="2"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
-      <c r="C963" s="3"/>
+      <c r="C963" s="2"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
-      <c r="C964" s="3"/>
+      <c r="C964" s="2"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
-      <c r="C965" s="3"/>
+      <c r="C965" s="2"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
-      <c r="C966" s="3"/>
+      <c r="C966" s="2"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
-      <c r="C967" s="3"/>
+      <c r="C967" s="2"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
-      <c r="C968" s="3"/>
+      <c r="C968" s="2"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
-      <c r="C969" s="3"/>
+      <c r="C969" s="2"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
-      <c r="C970" s="3"/>
+      <c r="C970" s="2"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
-      <c r="C971" s="3"/>
+      <c r="C971" s="2"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
-      <c r="C972" s="3"/>
+      <c r="C972" s="2"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
-      <c r="C973" s="3"/>
+      <c r="C973" s="2"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
-      <c r="C974" s="3"/>
+      <c r="C974" s="2"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
-      <c r="C975" s="3"/>
+      <c r="C975" s="2"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
-      <c r="C976" s="3"/>
+      <c r="C976" s="2"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
-      <c r="C977" s="3"/>
+      <c r="C977" s="2"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
-      <c r="C978" s="3"/>
+      <c r="C978" s="2"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
-      <c r="C979" s="3"/>
+      <c r="C979" s="2"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
-      <c r="C980" s="3"/>
+      <c r="C980" s="2"/>
     </row>
     <row r="981" ht="14.25" customHeight="1">
-      <c r="C981" s="3"/>
+      <c r="C981" s="2"/>
     </row>
     <row r="982" ht="14.25" customHeight="1">
-      <c r="C982" s="3"/>
+      <c r="C982" s="2"/>
     </row>
     <row r="983" ht="14.25" customHeight="1">
-      <c r="C983" s="3"/>
+      <c r="C983" s="2"/>
     </row>
     <row r="984" ht="14.25" customHeight="1">
-      <c r="C984" s="3"/>
+      <c r="C984" s="2"/>
     </row>
     <row r="985" ht="14.25" customHeight="1">
-      <c r="C985" s="3"/>
+      <c r="C985" s="2"/>
     </row>
     <row r="986" ht="14.25" customHeight="1">
-      <c r="C986" s="3"/>
+      <c r="C986" s="2"/>
     </row>
     <row r="987" ht="14.25" customHeight="1">
-      <c r="C987" s="3"/>
+      <c r="C987" s="2"/>
     </row>
     <row r="988" ht="14.25" customHeight="1">
-      <c r="C988" s="3"/>
+      <c r="C988" s="2"/>
     </row>
     <row r="989" ht="14.25" customHeight="1">
-      <c r="C989" s="3"/>
+      <c r="C989" s="2"/>
     </row>
     <row r="990" ht="14.25" customHeight="1">
-      <c r="C990" s="3"/>
+      <c r="C990" s="2"/>
     </row>
     <row r="991" ht="14.25" customHeight="1">
-      <c r="C991" s="3"/>
+      <c r="C991" s="2"/>
     </row>
     <row r="992" ht="14.25" customHeight="1">
-      <c r="C992" s="3"/>
+      <c r="C992" s="2"/>
     </row>
     <row r="993" ht="14.25" customHeight="1">
-      <c r="C993" s="3"/>
+      <c r="C993" s="2"/>
     </row>
     <row r="994" ht="14.25" customHeight="1">
-      <c r="C994" s="3"/>
+      <c r="C994" s="2"/>
     </row>
     <row r="995" ht="14.25" customHeight="1">
-      <c r="C995" s="3"/>
+      <c r="C995" s="2"/>
     </row>
     <row r="996" ht="14.25" customHeight="1">
-      <c r="C996" s="3"/>
+      <c r="C996" s="2"/>
     </row>
     <row r="997" ht="14.25" customHeight="1">
-      <c r="C997" s="3"/>
+      <c r="C997" s="2"/>
     </row>
     <row r="998" ht="14.25" customHeight="1">
-      <c r="C998" s="3"/>
+      <c r="C998" s="2"/>
     </row>
     <row r="999" ht="14.25" customHeight="1">
-      <c r="C999" s="3"/>
+      <c r="C999" s="2"/>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
-      <c r="C1000" s="3"/>
+      <c r="C1000" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="C19:C20"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="C9:C10"/>
@@ -6050,17 +6077,16 @@
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6105,8 +6131,8 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4"/>
@@ -6115,8 +6141,8 @@
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="8" t="s">
-        <v>7</v>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -6126,14 +6152,14 @@
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="13" t="s">
-        <v>9</v>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="13"/>
       <c r="G5" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -6148,569 +6174,569 @@
       <c r="R5" s="5"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="G6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="32" t="s">
+      <c r="B6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="G6" s="18" t="s">
         <v>20</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="32" t="s">
-        <v>22</v>
+      <c r="Q6" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="R6" s="5"/>
     </row>
     <row r="7" ht="28.5" customHeight="1">
-      <c r="B7" s="35">
+      <c r="B7" s="29">
         <v>1.0</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>49</v>
+      <c r="C7" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="20" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="39"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="R7" s="5"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="G8" s="14">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="15">
         <v>1.0</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <v>1.0</v>
       </c>
-      <c r="I8" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="51"/>
+      <c r="I8" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="48"/>
       <c r="R8" s="5"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="62"/>
+        <v>60</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="58"/>
       <c r="R9" s="5"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
       <c r="G10" s="31">
         <v>2.0</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="60">
         <v>1.4</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="65" t="s">
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="69" t="s">
-        <v>58</v>
+      <c r="M10" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="64" t="s">
+        <v>59</v>
       </c>
       <c r="R10" s="5"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="2"/>
       <c r="G11" s="31">
         <v>3.0</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="65" t="s">
+      <c r="L11" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="69" t="s">
-        <v>58</v>
+      <c r="M11" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="64" t="s">
+        <v>59</v>
       </c>
       <c r="R11" s="5"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="2"/>
       <c r="G12" s="31">
         <v>4.0</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="60">
         <v>3.6</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="67" t="s">
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="51" t="s">
-        <v>51</v>
+      <c r="M12" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="R12" s="5"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="35">
+      <c r="B13" s="29">
         <v>2.0</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
       <c r="G14" s="31">
         <v>5.0</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="60">
         <v>1.6</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="67" t="s">
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="M14" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="69" t="s">
-        <v>58</v>
+      <c r="M14" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="64" t="s">
+        <v>59</v>
       </c>
       <c r="R14" s="5"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="51"/>
+        <v>75</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="48"/>
       <c r="R15" s="5"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="51"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="48"/>
       <c r="R16" s="5"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="51"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="48"/>
       <c r="R17" s="5"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="14">
+      <c r="D18" s="41"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="15">
         <v>11.0</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="51"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="48"/>
       <c r="R18" s="5"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="35"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="14">
+      <c r="B19" s="29"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="15">
         <v>12.0</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="51"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="48"/>
       <c r="R19" s="5"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="14">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="15">
         <v>13.0</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="51"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="48"/>
       <c r="R20" s="5"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="14">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="15">
         <v>14.0</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="51"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="48"/>
       <c r="R21" s="5"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="14">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="15">
         <v>15.0</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="51"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="48"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="14">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="15">
         <v>16.0</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="51"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="48"/>
       <c r="R23" s="5"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="14">
+      <c r="D24" s="41"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="15">
         <v>17.0</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="51"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="48"/>
       <c r="R24" s="5"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="35"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="14">
+      <c r="B25" s="29"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="15">
         <v>18.0</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="51"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="48"/>
       <c r="R25" s="5"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="3"/>
-      <c r="G28" s="70"/>
-      <c r="I28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="81"/>
+      <c r="I28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
@@ -7683,6 +7709,31 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C18"/>
@@ -7690,39 +7741,14 @@
     <mergeCell ref="I29:M29"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -7752,7 +7778,7 @@
     <col customWidth="1" min="11" max="11" width="8.0"/>
     <col customWidth="1" min="12" max="12" width="9.86"/>
     <col customWidth="1" min="13" max="13" width="30.29"/>
-    <col customWidth="1" min="14" max="14" width="10.86"/>
+    <col customWidth="1" min="14" max="14" width="42.0"/>
     <col customWidth="1" min="15" max="26" width="8.0"/>
   </cols>
   <sheetData>
@@ -7760,8 +7786,8 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4"/>
@@ -7770,7 +7796,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="4"/>
@@ -7787,20 +7813,20 @@
       <c r="N3" s="5"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="D4" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="E4" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>20</v>
+      <c r="F4" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -7808,259 +7834,259 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="20" t="s">
-        <v>22</v>
+      <c r="M4" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="74"/>
-      <c r="C5" s="76"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="77"/>
       <c r="E5" s="74"/>
       <c r="F5" s="78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I5" s="79"/>
       <c r="J5" s="79"/>
       <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
+      <c r="L5" s="82"/>
       <c r="M5" s="79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="79" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="82">
+      <c r="B6" s="83">
         <v>1.0</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="85" t="s">
+      <c r="F6" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="G6" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
+      <c r="H6" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="89"/>
       <c r="L6" s="91"/>
-      <c r="M6" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="82" t="s">
-        <v>56</v>
+      <c r="M6" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="92" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="14">
+      <c r="B7" s="15">
         <f t="shared" ref="B7:B13" si="1">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="43" t="s">
+      <c r="F7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="43">
+      <c r="G7" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="47">
         <v>4.0</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="9"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>56</v>
+      <c r="M7" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="47">
         <v>1.0</v>
       </c>
-      <c r="G8" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="48" t="s">
+      <c r="G8" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>56</v>
+      <c r="H8" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="14">
+      <c r="B9" s="15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="47">
         <v>1.0</v>
       </c>
-      <c r="G9" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="43">
+      <c r="G9" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="47">
         <v>5.0</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>56</v>
+      <c r="M9" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="14">
+      <c r="B10" s="15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="98" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="14">
+      <c r="B11" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="98" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="43" t="s">
+      <c r="E11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101"/>
+      <c r="H11" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="103"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>56</v>
+      <c r="M11" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="14">
+      <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="98" t="s">
+      <c r="C12" s="94"/>
+      <c r="D12" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="43" t="s">
+      <c r="E12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
+      <c r="H12" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="103"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>56</v>
+      <c r="M12" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -8068,187 +8094,191 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="103" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="105" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="105" t="s">
-        <v>47</v>
+      <c r="H13" s="107" t="s">
+        <v>48</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="79"/>
       <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="N13" s="79" t="s">
-        <v>56</v>
+      <c r="L13" s="82"/>
+      <c r="M13" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="78" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="107" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="15"/>
-      <c r="M15" s="108"/>
+      <c r="B15" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="13"/>
+      <c r="M15" s="110"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="L16" s="3"/>
-      <c r="M16" s="108"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="110"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="111"/>
+      <c r="C17" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="113"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>99</v>
+      <c r="B18" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="115" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="119"/>
+      <c r="J18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="117"/>
-      <c r="J18" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>103</v>
+      <c r="K18" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="L18" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="N18" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>105</v>
+      <c r="O18" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="P18" s="72" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="91"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="120"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="121"/>
+      <c r="P19" s="123"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="125">
+      <c r="C20" s="127">
         <f>SUM(D20:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="129" t="s">
-        <v>107</v>
+        <v>8</v>
+      </c>
+      <c r="D20" s="128">
+        <v>8.0</v>
+      </c>
+      <c r="E20" s="128">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="129"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="131" t="s">
+        <v>112</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="38">
+      <c r="J20" s="41">
         <f>SUM(K20:L20)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="126"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="N20" s="38">
+      <c r="K20" s="132"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" s="41">
         <f>SUM(O20:P20)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="126"/>
-      <c r="P20" s="127"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="129"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="M21" s="15"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" ht="14.25" customHeight="1"/>
     <row r="23" ht="14.25" customHeight="1"/>
@@ -9231,42 +9261,42 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="F4:L4"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
